--- a/biology/Botanique/Virola_sebifera/Virola_sebifera.xlsx
+++ b/biology/Botanique/Virola_sebifera/Virola_sebifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yayamadou
 Virola sebifera est une espèce d'arbres néotropicaux de la famille des Myristicaceae (famille du muscadier). Il s'agit de l'espèce type du genre Virola Aubl.
-En Guyane, on il est connu sous les noms de Yayamadou (Créole), Muscadier porte-suif (Français désuet), Virola (Kali'na), Ucuùba, Ucuúba vermelha (Portugais),  Baboun[4], Djadja, ajamadou (Nenge tongo yaya signifiant "droit" et udu "bois", donc diadia udu, yayamadou, "bois droit", "tronc droit")[5], Grand bouchi-moulomba, Yayamadou de marécage[6].
-Au Suriname, on l'appelle Baboenhout (Hollandais du Suriname)[7].
-Au Guyana, c'est Hill dalli (Créole), Dalli (Arawak), Warushiran (Caribe)[8].
-Au Venezuela, il porte les noms de Ayoco, Yopo (Warekena (es)), Ayuku, Guachinakua (Yekwana), Erika-bai-yek, Ibirkabá (Arekuna), Camaticaro, Camaticaro rojo, Carpeto, Cozoiba, Cuajo, Cuajo negro, Cuajo pequeño, Lancetillo, Masarico, Piassám, Sangrino blanco, Sangrito blanco, Tártago (Espagnol)[9].
+En Guyane, on il est connu sous les noms de Yayamadou (Créole), Muscadier porte-suif (Français désuet), Virola (Kali'na), Ucuùba, Ucuúba vermelha (Portugais),  Baboun, Djadja, ajamadou (Nenge tongo yaya signifiant "droit" et udu "bois", donc diadia udu, yayamadou, "bois droit", "tronc droit"), Grand bouchi-moulomba, Yayamadou de marécage.
+Au Suriname, on l'appelle Baboenhout (Hollandais du Suriname).
+Au Guyana, c'est Hill dalli (Créole), Dalli (Arawak), Warushiran (Caribe).
+Au Venezuela, il porte les noms de Ayoco, Yopo (Warekena (es)), Ayuku, Guachinakua (Yekwana), Erika-bai-yek, Ibirkabá (Arekuna), Camaticaro, Camaticaro rojo, Carpeto, Cozoiba, Cuajo, Cuajo negro, Cuajo pequeño, Lancetillo, Masarico, Piassám, Sangrino blanco, Sangrito blanco, Tártago (Espagnol).
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Virola sebifera est un arbre haut de 2 à 25(30) m, avec un port caractéristique avec de fines branches perpendiculaires au tronc, étagées en pseudo-verticilles.
 Son tronc est droit et cylindrique, dépourvu de contreforts (ou alors très petits), atteignant rarement une hauteur totale de 20 m pour un diamètre de 20 cm.
@@ -524,7 +538,7 @@
 L'écorce interne est rosâtre.
 En cas de blessure, il exsude une abondante sève rouge, un peu aqueuse. 
 Ses rameaux sont cylindriques, souvent striés lorsqu'ils sont secs, ferrugineux-tomenteux (lorsqu'ils sont jeunes) devenant glabrescents, brun foncé.
-Le bois est beige clair, à grain fin et fil très droit, léger (densité : 0,40 à 0,65). On compte 6 à 8 vaisseaux par mm², mesurant en moyenne 110 à 130 µm. Les perforations des vaisseaux sont uniques ou parfois en grilles de 1 à 7 barreaux. Les ponctuations inlervasculaires sont de l'ordre de 9-11 µm[6].
+Le bois est beige clair, à grain fin et fil très droit, léger (densité : 0,40 à 0,65). On compte 6 à 8 vaisseaux par mm², mesurant en moyenne 110 à 130 µm. Les perforations des vaisseaux sont uniques ou parfois en grilles de 1 à 7 barreaux. Les ponctuations inlervasculaires sont de l'ordre de 9-11 µm.
 Les feuilles de Virola sebifera sont reconnaissables sur l'arbre ou au sol : la base cordée, sans acumen bien individualisé, tomenteuses roussâtres sur la face inférieure, avec des nervures d'ordre 3 distinctes grossièrement parallèles.
 Elles sont simples, alternes, subcoriaces, de forme ovale ou oblongue (généralement plus large vers la base), aiguës ou acuminées à l'apex, à base plus ou moins cordée, longues de ± 25 (10-35) cm pour 9 (4-11) cm de large.
 On note un indumentum étoilé, dense, ferrugineux, sur les deux faces, devenant glabre avec l'âge sur la face adaxiale, et des trichomes dendritiques abondants sur les rameaux, les inflorescences et les fleurs. 
@@ -548,7 +562,7 @@
 L'ovaire ovale ou (sub)globuleux, est tomenteux, et porte un stigmate sessile, discoïde, peu fendu, légèrement oblique, à 2 lobes.
 Le fruit, de même structure que chez la muscade, est globuleux ou globuleux-ellipsoïde, relativement petit, long de 10-15(18) mm pour 11(12) mm de large.
 Il s'agit d'une capsule bleu-vert, densément pubescente brun ferrugineux à tomenteuse rouille (lorsqu'immature), devenant glabrescente.
-Il contient une graine, recouverte d'un arille lacinié violet à rouge[7],[5],[9],[8],[4].
+Il contient une graine, recouverte d'un arille lacinié violet à rouge.
 </t>
         </is>
       </c>
@@ -577,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virola sebifera est présent du Nicaragua, au Brésil, en passant par le Costa Rica, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, la Bolivie[9],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virola sebifera est présent du Nicaragua, au Brésil, en passant par le Costa Rica, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, la Bolivie,.
 </t>
         </is>
       </c>
@@ -608,15 +624,17 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virola sebifera pousse principalement en forêt de terre ferme[5], dans les régions côtières et dans les formations secondaires en Guyane[4], dans les forêts marécageuses ou montagneuses du Suriname[7], dans les forêts secondaires et mixtes au Guyana[8], et dans les forêts sempervirentes de plaine ou de montagne, et les savanes, autour de 50–1 400 m d'altitude au Venezuela[9].
-En Guyane, il fleurit en mai, et fructifie en juillet/août/novembre[5].
-Les fruits de Virola sebifera tiennent une place important dans l'alimentation des communautés d'oiseaux au Panama (Toucan de Swainson, Toucans à carène, Tityre masqué, Trogon de Masséna, Motmot roux, Araçari à collier), qui eux-mêmes jouent un rôle important dans sa dissémination[10].
-Sa dissémination a aussi été étudiée en Bolivie[11],
-ainsi que la biologie de sa reproduction[12],
-et ses loci microsatellites[13].
-Les feuilles de Virola sebifera contiennent des composés phytotoxiques (sésamine, kobusine, quercitrine) à l'origine des proriétés allélopathiques de sa litière[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virola sebifera pousse principalement en forêt de terre ferme, dans les régions côtières et dans les formations secondaires en Guyane, dans les forêts marécageuses ou montagneuses du Suriname, dans les forêts secondaires et mixtes au Guyana, et dans les forêts sempervirentes de plaine ou de montagne, et les savanes, autour de 50–1 400 m d'altitude au Venezuela.
+En Guyane, il fleurit en mai, et fructifie en juillet/août/novembre.
+Les fruits de Virola sebifera tiennent une place important dans l'alimentation des communautés d'oiseaux au Panama (Toucan de Swainson, Toucans à carène, Tityre masqué, Trogon de Masséna, Motmot roux, Araçari à collier), qui eux-mêmes jouent un rôle important dans sa dissémination.
+Sa dissémination a aussi été étudiée en Bolivie,
+ainsi que la biologie de sa reproduction,
+et ses loci microsatellites.
+Les feuilles de Virola sebifera contiennent des composés phytotoxiques (sésamine, kobusine, quercitrine) à l'origine des proriétés allélopathiques de sa litière.
 </t>
         </is>
       </c>
@@ -645,22 +663,24 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Fusée-Aublet rapporte que l'on extrayait autrefois des graines des Virola un "suif jaunâtre" âcre, employé pour fabriquer des chandelles[15].
-Chez les amérindiens du Guyana, le bois de Virola sebifera est utilisé dans la construction de maisons. La sève rouge est frottée sur les plaies buccales[8].
-Au Venezuela, certains chamans Yanomam et d'autres populations vivant dans la région des sources de l'Orénoque, organiseraient des danses cérémonielles destinées à soigner les fièvres au cours desquelles ils fumeraient ou priseraient l'écorce interne hallucinogène de Virola sebifera. Ils en feraient aussi une décoction destinée à éloigner les mauvais esprits[16],[9].
-Ces propriétés hallucinogènes seraient liées à la présence de diméthyltryptamine et ses dérivés[17].
-Des analyses de cette écorce rapportent qu'elle contient principalement de la N,N-diméthyltryptamine[18],
-ainsi que des N-méthyl-N-formyltryptamine et de la N-méthyl-N-acétyltryptamine[19].
-Le bois tendre de Virola sebifera est propice pour le déroulage et fourni un placage connu[20].
-Virola sebifera est utilisé dans le traitement des rhumatismes, de l'arthrite, de la dyspepsie, du paludisme, des douleurs musculaires et de l'érysipèle[21].
-Les extraits de Virola sebifera présentent une activité antibactérienne significative contre des souches Staphylococcus aureus résistantes à la méthicilline[22],
-et des propriétés antioxydantes[23],[24],
-antiproliférative[17],
-cytotoxique sur des lignées cellulaires tumorales humaines[25].
-Les composés antioxydants et antimicrobiens extraits de Virola sebifera présentent une activité significative sur Staphylococcus aureus, Staphylococcus epidermidis, Salmonella typhimurium et Escherichia coli[21]
-Du fait de sa composition chimique, l'extrait de Virola sebifera présente un potentiel insecticide contre la fourmi-manioc Atta sexdens rubropilosa et fongicide contre son champignon symbiotique Leucoagaricus gongylophorus[26],[27].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Fusée-Aublet rapporte que l'on extrayait autrefois des graines des Virola un "suif jaunâtre" âcre, employé pour fabriquer des chandelles.
+Chez les amérindiens du Guyana, le bois de Virola sebifera est utilisé dans la construction de maisons. La sève rouge est frottée sur les plaies buccales.
+Au Venezuela, certains chamans Yanomam et d'autres populations vivant dans la région des sources de l'Orénoque, organiseraient des danses cérémonielles destinées à soigner les fièvres au cours desquelles ils fumeraient ou priseraient l'écorce interne hallucinogène de Virola sebifera. Ils en feraient aussi une décoction destinée à éloigner les mauvais esprits,.
+Ces propriétés hallucinogènes seraient liées à la présence de diméthyltryptamine et ses dérivés.
+Des analyses de cette écorce rapportent qu'elle contient principalement de la N,N-diméthyltryptamine,
+ainsi que des N-méthyl-N-formyltryptamine et de la N-méthyl-N-acétyltryptamine.
+Le bois tendre de Virola sebifera est propice pour le déroulage et fourni un placage connu.
+Virola sebifera est utilisé dans le traitement des rhumatismes, de l'arthrite, de la dyspepsie, du paludisme, des douleurs musculaires et de l'érysipèle.
+Les extraits de Virola sebifera présentent une activité antibactérienne significative contre des souches Staphylococcus aureus résistantes à la méthicilline,
+et des propriétés antioxydantes
+antiproliférative,
+cytotoxique sur des lignées cellulaires tumorales humaines.
+Les composés antioxydants et antimicrobiens extraits de Virola sebifera présentent une activité significative sur Staphylococcus aureus, Staphylococcus epidermidis, Salmonella typhimurium et Escherichia coli
+Du fait de sa composition chimique, l'extrait de Virola sebifera présente un potentiel insecticide contre la fourmi-manioc Atta sexdens rubropilosa et fongicide contre son champignon symbiotique Leucoagaricus gongylophorus,.
 </t>
         </is>
       </c>
@@ -689,17 +709,19 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de Virola sebifera contient des butyrolactones (du (2R, 3S)-3-(3,4-dimethoxybenzyl)-2-(3,4-methylenedioxybenzyl)-butyrolactone dans ses graines, et du (2R, 3R)-3-(3,4-dimethoxybenzyl)-2-(3,4-methylenedioxybenzyl)-butyrolactone, (2R, 3R)-2,3-di-(3, 4-dimethoxybenzyl)-butyrolactone et (2R, 3R)-2,3-di-(3,4-methylenedioxybenzyl)-butyrolactone dans son péricarpe)[28],
-ainsi que des tétralines et néolignanes de naphtalène (2,3-Dimethyl-4-piperonyl-4-veratrylbutan-1-ol)[29],
-des composés de ω-phenylundecanoyl (2,6-dihydroxybenzene, 2,6-dihydroxy-4-methoxybenzene et 3-hydroxycyclohexan-2,6-dione)[30],
-des néolignanes de tétralone (dont 2,4-dihydroxy-6,7-methylenedioxy-2,3-dimethyl-4-veratryltetralin-1-one)[31],[32],[33],[34],[35],
-des analogues des podophyllotoxines[36],
-une lignane hydroxy-otobaine[37],
-des lignanes de dibenzylbutane (diacétate de rac-(8a,8′P)-4,4′-dihydroxy-3,3′-dimethoxylignan-9,9′-diyl et diacétate de rac-(8a,8′P)-4-hydroxy-3-methoxy-3′,4′-methylenedioxylignan-9,9′-diyl)[38].
-On a extrait du bois de Virola sebifera du 3-indolcarboxaldéhyde, et des diarylpropanes : 1-(4'-hydroxy-2'-méthoxyphényl-3-(3"-hydroxy-4"-méthoxyphényl)-propane, Virolanol B et Virolanol C[39].
-Plusieurs de ces composés ont pu être synthétisés artificiellement[40].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de Virola sebifera contient des butyrolactones (du (2R, 3S)-3-(3,4-dimethoxybenzyl)-2-(3,4-methylenedioxybenzyl)-butyrolactone dans ses graines, et du (2R, 3R)-3-(3,4-dimethoxybenzyl)-2-(3,4-methylenedioxybenzyl)-butyrolactone, (2R, 3R)-2,3-di-(3, 4-dimethoxybenzyl)-butyrolactone et (2R, 3R)-2,3-di-(3,4-methylenedioxybenzyl)-butyrolactone dans son péricarpe),
+ainsi que des tétralines et néolignanes de naphtalène (2,3-Dimethyl-4-piperonyl-4-veratrylbutan-1-ol),
+des composés de ω-phenylundecanoyl (2,6-dihydroxybenzene, 2,6-dihydroxy-4-methoxybenzene et 3-hydroxycyclohexan-2,6-dione),
+des néolignanes de tétralone (dont 2,4-dihydroxy-6,7-methylenedioxy-2,3-dimethyl-4-veratryltetralin-1-one)
+des analogues des podophyllotoxines,
+une lignane hydroxy-otobaine,
+des lignanes de dibenzylbutane (diacétate de rac-(8a,8′P)-4,4′-dihydroxy-3,3′-dimethoxylignan-9,9′-diyl et diacétate de rac-(8a,8′P)-4-hydroxy-3-methoxy-3′,4′-methylenedioxylignan-9,9′-diyl).
+On a extrait du bois de Virola sebifera du 3-indolcarboxaldéhyde, et des diarylpropanes : 1-(4'-hydroxy-2'-méthoxyphényl-3-(3"-hydroxy-4"-méthoxyphényl)-propane, Virolanol B et Virolanol C.
+Plusieurs de ces composés ont pu être synthétisés artificiellement.
 </t>
         </is>
       </c>
@@ -728,9 +750,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[15] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « VIROLA ſebifera.  (Tabula 345.)
 Arbor trunco quadraginta aut ſexaginta-pedali, in ſummitate ramoſo ; ramis longis, tortuoſis, erectis, &amp; declinatis, hinc &amp; indè ſparſis, ramulis folioſis &amp; floriferis, tomentoſis, ferrugineis. Folia. alterna, cordato-oblonga, acuta, ſupernè viridia, glabra, infernè tomentoſa, rufeſcenti , integerrima, brevi petiolata. Flores capitati, racemoſi, axillares &amp; terminales ; racemo amplo, tomentoſo, ferrugineo. Flores congeſti quinque aut ſex, ſeſſiles. Fructus variat magnitudine &amp; figura in diverſis arboribus, duplo major quibuſdaM, oblongus, valvulis in cylindrum obtuſum productis.
 Ex nucleo extrahitur ſebi flaveſcentis fpecies: variis uſibus œconomicis &amp; medicis inſervit illud ſebum ex quo candelæ conſiciuntur. E cortice incifo ſuccus tuber acris ſtillat.
